--- a/outputs/KOLKATA2.xlsx
+++ b/outputs/KOLKATA2.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Given the context of the provided image, ABI would recognize finding the README file as a crucial step toward adding information to it. The README file is a common and familiar element within repositories for providing essential information, and ABI's motivations to complete tasks effectively align with this subgoal. Additionally, ABI's comprehensive information processing style would lead them to understand the importance of locating the README file to achieve the overall use case.</t>
+Why: The README file is prominently listed in the repository's file list, and it is a common practice to look for a README file when trying to understand or add information to a project. ABI, being motivated to accomplish the task and having a comprehensive information processing style, would likely consider finding the README as a necessary step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page presents a list of files, including the README.md file, right at the top of the file list. Scrolling down to read more about the files or the content of the README.md file aligns with ABI's comprehensive information processing style. ABI would recognize that scrolling down could provide additional relevant information, so they would be motivated and feel confident to take this action. Additionally, the presence of a recognizable README.md file would encourage ABI to explore further by scrolling.</t>
+Why: The page is structured in a way that encourages scrolling to read more information. ABI, with a comprehensive information processing style, would naturally scroll down to gather more information. The layout and content of the page are clear and informative, making it easy for ABI to understand that scrolling down is the next logical step to find the README file.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling down may provide more context about the project, it does not directly indicate progress toward finding the README file or adding information to it. The page contains a lot of information about the project and its features, but it does not provide specific instructions or steps on how to edit the README file. ABI may feel overwhelmed by the volume of information and unsure of the next steps to directly achieve the goal of adding information to the README file. Given ABI's low computer self-efficacy, they might doubt whether they are on the right path without clear, direct guidance.</t>
+Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
+Why: After scrolling down, ABI will see a lot of information about the project, but it might not be immediately clear that they are making progress toward finding the README file. The README file is listed at the top of the file list, and scrolling down might not provide additional clarity or confirmation that they are on the right track. ABI might feel overwhelmed by the amount of information and unsure if they are progressing toward their goal.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The README.md file is clearly labeled and prominently listed among the files in the repository. Clicking on the README.md file is a logical next step for ABI, who is motivated to add information to it. The file naming convention is standard and recognizable, which aligns with ABI's information processing style. Since ABI is familiar with the typical structure of repositories and the role of README files, they would know that clicking on README.md will likely take them to the content of the file they need to edit.</t>
+Why: The README.md file is clearly listed in the file list at the top of the page. ABI, motivated to add information to the README and using a comprehensive information processing style, will recognize that clicking on README.md is the appropriate next step to access and edit the file. The page provides a clear indication of where the README.md file is located, making it straightforward for ABI to take this action.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on README.md, ABI will land on a page displaying the content of the README file. This page clearly shows the information within the README.md file, confirming to ABI that they have done the right thing and are making progress toward their goal. The layout of the page is straightforward and provides the needed information in a clear and accessible format. ABI will recognize that they are now in the correct place to add or edit information in the README file, aligning with their motivation to complete the task and their comprehensive information processing style.</t>
+Why: After clicking on README.md, ABI will be taken to a page that clearly displays the contents of the README file. This page provides detailed information about the project, confirming to ABI that they have accessed the correct file and are making progress toward their goal of adding information to the README. The comprehensive information presented aligns with ABI's information processing style, ensuring they have all the necessary details to proceed.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Finding out how to edit the README is a logical and necessary step toward achieving the overall use case of adding information to it. ABI, motivated to complete the task, would recognize the need to know the editing process to accomplish the goal effectively. Additionally, ABI's comprehensive information processing style would prompt them to seek out detailed instructions or guidelines on how to make the necessary edits to ensure they are following the correct procedure.</t>
+Why: ABI, motivated to add information to the README, would naturally consider finding out how to edit it as a necessary step toward achieving the overall use case. Given ABI's comprehensive information processing style, they would recognize that understanding the process of editing the README is crucial for completing the task. The page provides detailed information about the project, which aligns with ABI's need to gather all relevant information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The pencil button is a common icon for editing, but ABI, having low computer self-efficacy, might not be entirely confident in clicking it without explicit instructions. The page does not provide clear, direct guidance or a tooltip indicating that the pencil icon is for editing the README file. ABI prefers process-oriented learning and might hesitate to tinker by clicking an unfamiliar icon, fearing potential mistakes. Without a clear indication of what the pencil button does, ABI might not feel comfortable taking this action.</t>
+Facets: 4. Computer Self-Efficacy, 3. Attitude Towards Risk
+Why: The pencil button, which is used to edit the README, is not explicitly labeled or explained on the page. ABI, with low computer self-efficacy and a risk-averse attitude, might not feel confident clicking an unfamiliar icon without clear instructions or confirmation of its function. ABI might hesitate to click the pencil button due to uncertainty about what it does, potentially preventing them from proceeding with the task.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the pencil button, ABI will land on an editing interface for the README.md file. The interface is clearly designed for editing, with an "Edit" label and a text area displaying the content of the README file. The presence of options like "Cancel changes" and "Commit changes" further indicates that ABI is in the right place to make edits. This confirms to ABI that they have done the right thing and are making progress toward their goal. The straightforward layout and clear labels provide all the information ABI needs to proceed with editing the README file.</t>
+Why: After clicking the pencil button, ABI will be taken to an edit page where the README.md file is displayed in an editable format. This clear transition to an editing interface will confirm to ABI that they have done the right thing and are making progress toward their goal of adding information to the README. The page provides a straightforward and familiar text editing environment, which aligns with ABI's motivation to complete the task and their comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The editing interface is straightforward and resembles a text editor, which is familiar to most users. ABI is motivated to complete the task of adding information to the README file and recognizes that they are now in the appropriate place to make edits. The interface clearly displays the file's content and provides options to "Cancel changes" or "Commit changes," which aligns with ABI's comprehensive information processing style by offering clear actions to take. The simplicity and familiarity of the interface make it easy for ABI to understand what to do next.</t>
+Why: The page provides a clear and familiar text editing interface, which is straightforward for ABI to use. ABI, motivated to add information to the README, will recognize that they can directly edit the text in this interface. The layout is simple and intuitive, with the text displayed in an editable format, making it easy for ABI to understand what to do at this step. This aligns with ABI's comprehensive information processing style, as they can see the entire content of the README and make the necessary edits.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After editing the file, ABI will see their changes reflected in the text area, providing immediate feedback that they are making progress toward their goal. The presence of the "Commit changes" button further indicates that the next step is to save their edits. The clear and straightforward interface reassures ABI that their actions are correct. This aligns with ABI's motivation to complete the task and their preference for comprehensive information processing, as they can see the result of their edits and the next steps to finalize the changes.</t>
+Why: After editing the file, ABI will see their changes reflected in the text, confirming that they have successfully made edits to the README. The interface clearly shows the edited content, providing immediate feedback that they are making progress toward their goal. This aligns with ABI's motivation to complete the task and their comprehensive information processing style, as they can see the results of their actions directly in the editing interface.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not prominently display a "Preview changes" button, which might confuse ABI about how to preview their edits. ABI may not have high confidence in navigating unfamiliar interfaces without clear instructions. Adding to this, ABI prefers process-oriented learning, so the lack of explicit guidance on how to preview changes can make them hesitant. Without clear, direct instructions or a visible button, ABI may not feel certain about taking this action.</t>
+Facets: 4. Computer Self-Efficacy, 3. Attitude Towards Risk
+Why: The "Preview changes" button is not explicitly labeled or explained on the page. ABI, with low computer self-efficacy and a risk-averse attitude, might not feel confident clicking an unfamiliar button without clear instructions or confirmation of its function. ABI might hesitate to click the "Preview changes" button due to uncertainty about what it does, potentially preventing them from proceeding with the task.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Preview changes," ABI will see the rendered version of the README file with their edits included. This immediate visual feedback will confirm to ABI that they have done the right thing and are making progress toward their goal. Seeing the changes in the context of the rendered document provides clear and direct confirmation that their edits are correctly formatted and in place. This aligns with ABI's motivation to complete the task effectively and their comprehensive information processing style, as they can verify that their changes are as intended before finalizing them.</t>
+Why: After clicking "Preview changes," ABI will see a rendered view of the README file with their edits. This clear visual confirmation will indicate to ABI that they have done the right thing and are making progress toward their goal. The preview provides a comprehensive view of the changes, aligning with ABI's information processing style and ensuring they have all the information they need to proceed. This feedback will reinforce ABI's motivation to complete the task.</t>
         </is>
       </c>
     </row>

--- a/outputs/KOLKATA2.xlsx
+++ b/outputs/KOLKATA2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The README file is prominently listed in the file directory on the GitHub repository page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding the README is a necessary step toward adding information to it. The clear labeling and visibility of the README file make it an obvious subgoal in the process.</t>
+Why: The README file is prominently listed in the file directory on the GitHub page, making it easy to locate. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would recognize finding the README as a necessary step toward adding information to it. The clear labeling and visibility of the README file align with her need for straightforward and familiar processes.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-organized, and the README file is clearly listed in the file directory. Abi would likely understand that scrolling down could provide additional context or instructions related to the README file, making it a logical step in her process.</t>
+Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-organized, and the README file is clearly listed in the file directory, making it easy for Abi to identify and locate. Scrolling down to gather more information is a natural step for Abi to ensure she fully understands the context and details before proceeding.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: After scrolling down, Abi will not find additional information specifically about the README file. The page contains a lot of information about the project, its features, and other details, but it does not provide specific guidance on how to find or edit the README file. Given Abi's low computer self-efficacy and her need for comprehensive information, she might feel uncertain about whether she is making progress toward her goal. The lack of direct instructions or clear next steps related to the README file could leave her feeling unsure and overwhelmed.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling down might provide more information about the project, it does not directly indicate progress toward finding the README file. The README file is already visible in the file directory at the top of the page, so scrolling down further might not be necessary and could potentially confuse Abi. Given Abi's low computer self-efficacy, she might not feel confident that she is making progress if she doesn't see immediate and clear indications of the README file after scrolling. Additionally, the comprehensive information processing style means Abi needs clear and direct information to feel assured she is on the right track, which scrolling down does not necessarily provide in this context.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The README.md file is clearly listed in the file directory on the GitHub repository page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that clicking on the README.md file is a necessary step toward adding information to it. The clear labeling and visibility of the README.md file make it an obvious action to take.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The README.md file is clearly listed in the file directory at the top of the page, making it easy for Abi to identify. Given her motivation to accomplish tasks and her comprehensive information processing style, she would recognize that clicking on README.md is the next logical step toward finding and adding information to it. The clear labeling and visibility of the README file provide the necessary information for Abi to confidently take this action.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on README.md, Abi will land on a page that displays the contents of the README file. This page provides detailed information about the project, including its features, installation instructions, and contribution guidelines. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will recognize that she has found the README file and is making progress toward her goal of adding information to it. The page contains all the necessary information she needs to understand the context and content of the README file.</t>
+Why: After clicking on README.md, Abi will land on a page that clearly displays the README content. This page provides detailed information about the project, including features, installation instructions, and contribution guidelines. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will recognize that she has successfully found the README file and is making progress toward her goal of adding information to it. The clear and detailed presentation of the README content will provide Abi with the necessary information to proceed confidently.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding out how to edit the README is a necessary step toward adding information to it. Understanding how to make changes to the README file is a logical and essential part of the overall use case, and Abi would consider this a critical subgoal in the process.</t>
+Why: Abi is motivated to accomplish her task of adding information to the README. To do so, she needs to find out how to edit it, which is a logical step toward achieving her overall use case. Given her comprehensive information processing style, Abi would recognize that understanding how to edit the README is essential for completing her task. The page provides detailed information about the project and contributing, which would prompt Abi to consider finding editing instructions as a necessary step.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 3. Attitude Toward Risk
-Why: The pencil button, which is used to edit the README file, is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and risk-averse nature, she might be hesitant to click on an unfamiliar icon without clear instructions or confirmation of its function. Abi might not feel confident that clicking the pencil button is the correct action to take, and she may be concerned about making a mistake. Therefore, the page is not good enough for Abi to confidently take this action.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The pencil button, which is the edit button, is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy, she might not feel confident about clicking an unfamiliar icon without clear instructions. Additionally, Abi prefers process-oriented learning and step-by-step instructions, which are not provided here. Without clear guidance or labeling, Abi might struggle to understand that clicking the pencil button is the correct action to edit the README.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the pencil button, Abi will be taken to an edit page where she can see the README file in an editable format. The presence of the "Edit" and "Commit changes" buttons, along with the editable text, will clearly indicate to her that she is in the right place to make changes to the README file. This aligns with her motivation to accomplish tasks and her comprehensive information processing style, as she can see the full content of the README and has the necessary tools to make edits. The page provides a clear and straightforward interface for editing, which will help Abi feel confident that she is making progress toward her goal.</t>
+Why: After clicking the pencil button, Abi will be taken to an edit page where the README content is displayed in an editable format. This clear transition to an editing interface will indicate to Abi that she has done the right thing and is making progress toward her goal of adding information to the README. The page provides a straightforward and familiar text editing environment, which aligns with Abi's motivation to accomplish her task and her comprehensive information processing style. The presence of "Edit" and "Commit changes" buttons further reinforces that she is in the correct place to make and save her edits.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear and straightforward interface for editing the README file. The text is displayed in an editable format, and there are "Edit" and "Commit changes" buttons that indicate the actions Abi can take. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will understand that she can directly edit the text in the provided editor. The page is well-organized and provides all the necessary tools for making edits, making it easy for Abi to know what to do at this step.</t>
+Why: The page provides a clear and familiar text editing interface, which is straightforward for Abi to use. Given her motivation to accomplish the task and her comprehensive information processing style, Abi will recognize that she needs to edit the text directly in the provided editor. The presence of "Edit" and "Commit changes" buttons, along with the editable text area, makes it clear what she needs to do next. This setup aligns well with Abi's need for clear and direct instructions, allowing her to proceed confidently with editing the README file.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After editing the file, Abi will see her changes reflected in the editable text area. The presence of the "Commit changes" button will indicate that she can save her edits, confirming that she is making progress toward her goal. The interface is clear and straightforward, showing the changes she made and providing an obvious next step to finalize the edits. This aligns with her motivation to accomplish tasks and her comprehensive information processing style, as she can see the immediate results of her actions and knows how to proceed.</t>
+Why: After editing the file, Abi will see her changes reflected in the text editor. This immediate feedback will confirm that she has done the right thing and is making progress toward her goal of adding information to the README. The presence of the "Commit changes" button further indicates that she is on the right track to save her edits. The clear and familiar text editing interface, along with the visible changes she made, will provide Abi with the necessary information and confidence to proceed. This aligns with her motivation to accomplish tasks and her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 3. Attitude Toward Risk
-Why: The "Preview changes" button is not clearly visible or labeled in the provided image. Given Abi's low computer self-efficacy and risk-averse nature, she might be hesitant to click on an unfamiliar button without clear instructions or confirmation of its function. Abi might not feel confident that clicking the "Preview changes" button is the correct action to take, and she may be concerned about making a mistake. Therefore, the page is not good enough for Abi to confidently take this action.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The "Preview changes" button is not explicitly visible or labeled on the page. Given Abi's low computer self-efficacy, she might not feel confident about clicking an unfamiliar button without clear instructions. Additionally, Abi prefers process-oriented learning and step-by-step instructions, which are not provided here. Without clear guidance or labeling, Abi might struggle to understand that clicking the "Preview changes" button is the correct action to review her edits. The lack of explicit instructions or visible labeling makes it difficult for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits. This visual confirmation will help her understand that she did the right thing and is making progress toward her goal. The preview provides a clear and accurate representation of how the README will look after the changes are committed, which aligns with her comprehensive information processing style. Seeing the changes in context will reassure Abi that she is on the right track and has all the information she needs to proceed.</t>
+Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits. This immediate visual feedback will confirm that she has done the right thing and is making progress toward her goal of adding information to the README. The clear and familiar preview interface, showing the changes she made, will provide Abi with the necessary information and confidence to proceed. This aligns with her motivation to accomplish tasks and her comprehensive information processing style, as she can see the results of her actions directly.</t>
         </is>
       </c>
     </row>
